--- a/bookie/etc/Bookie_DB_TABLE.xlsx
+++ b/bookie/etc/Bookie_DB_TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6555" tabRatio="815" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6555" tabRatio="815" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="41" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="QuestionHistory" sheetId="58" r:id="rId7"/>
     <sheet name="QNA" sheetId="59" r:id="rId8"/>
     <sheet name="Answer" sheetId="60" r:id="rId9"/>
+    <sheet name="QnaCount" sheetId="62" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913" forceFullCalc="1"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="163">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -723,6 +724,53 @@
   </si>
   <si>
     <t>동근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnaCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qcId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnaCount Table key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qcCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-- QnaCount 테이블 생성
+CREATE TABLE QnaCount(
+ qcId   BIGINT   PRIMARY KEY      AUTO_INCREMENT,
+ qcCount   INT    NOT NULL,
+ qnaId   BIGINT   NOT NULL DEFAULT 0,
+ regDate   TIMESTAMP  NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+ CONSTRAINT QnaCount_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId)
+);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +916,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +950,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,15 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1232,76 +1283,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1614,57 +1665,65 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1674,14 +1733,436 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="27" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="27" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="224.1" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1716,76 +2197,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2058,79 +2539,71 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -2140,6 +2613,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2174,76 +2655,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2502,79 +2983,71 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -2584,6 +3057,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2618,76 +3099,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2946,79 +3427,71 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -3028,6 +3501,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3062,76 +3543,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -3438,79 +3919,71 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -3520,6 +3993,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3554,76 +4035,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -3882,79 +4363,71 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -3964,6 +4437,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3998,76 +4479,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -4340,79 +4821,71 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -4422,6 +4895,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4436,7 +4917,7 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4456,76 +4937,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -4806,65 +5287,57 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -4874,6 +5347,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4888,7 +5369,7 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4908,76 +5389,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -5248,65 +5729,57 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5316,6 +5789,14 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/bookie/etc/Bookie_DB_TABLE.xlsx
+++ b/bookie/etc/Bookie_DB_TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="11790" tabRatio="815" firstSheet="3" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="815" firstSheet="3" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -29,349 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="152">
-  <x:si>
-    <x:t>QnaCount Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제맞춰는지 확인하는 유무파악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 풀이한 내역을 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제텍스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bookie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인  덱  스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB등록날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>identify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>document</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">e-mail로 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT 'N'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨 m=중 h=고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중,고등학생 구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.08.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지문을 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE MainText (
-   	mtId         	BIGINT         	PRIMARY KEY AUTO_INCREMENT,
-   	mText      		VARCHAR(3500)  	NOT NULL,
-   	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE SubjectPattern (
-   	spId      		BIGINT         	PRIMARY KEY AUTO_INCREMENT,
-   	pattern      	VARCHAR(20)    	NOT NULL,
-   	subject      	VARCHAR(10)    	NOT NULL,
-   	regDate      	TIMESTAMP      	NOT NULL	DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE Qna(
-   	qnaId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
-   	subject			VARCHAR(500)	NOT NULL,
-	document		VARCHAR(3500)	NOT NULL,
-	cateId			BIGINT			NOT NULL,
-   	uId         	BIGINT     		NOT NULL,
-   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT Qna_cateId_FK FOREIGN KEY (cateId) REFERENCES Category(cateId),
-   CONSTRAINT Qna_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubjectPattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionPattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타입 m=중 h=고 e=기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionHistory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE Category (
-   	cateId      	BIGINT      	PRIMARY KEY AUTO_INCREMENT,
-   	cLevel      	CHAR(1)         NOT NULL,
-   	grade      		INT             NOT NULL,
-   	subject      	VARCHAR(10)     NOT NULL,
-   	regDate      	TIMESTAMP       NOT NULL    DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT=1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE QuestionHistory(
-   	qhId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
-   	uId         	BIGINT     		NOT NULL,
-   	qId         	BIGINT     		NOT NULL,
-   	identify   		CHAR(1)      	NOT NULL,
-   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT QuestionHistory_uId_FK FOREIGN KEY (uId) REFERENCES User(uId),
-   CONSTRAINT QuestionHistory_qId_FK FOREIGN KEY (qId) REFERENCES Question(qId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE QuestionText (
-	qtId			BIGINT			PRIMARY KEY AUTO_INCREMENT,
-	totalText		VARCHAR(3500)  	NOT NULL,
-	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 본문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cateId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qhId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qpId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mtId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qnaId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>passwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>anId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qtId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>totalText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE Answer(
-   	anId      		BIGINT      	PRIMARY KEY      AUTO_INCREMENT,
-	document		VARCHAR(1500)	NOT NULL,
-	qnaId      		BIGINT			NOT NULL,
-   	uId         	BIGINT     		NOT NULL,
-   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT Answer_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId),
-   CONSTRAINT Answer_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QnaCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE QuestionPattern (
-   	qpId      		BIGINT          PRIMARY KEY AUTO_INCREMENT,
-   	qId         	BIGINT          NOT NULL,
-   	spId      		BIGINT          NOT NULL,
-   	regDate      	TIMESTAMP      	NOT NULL 	DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT QuestionPattern_qId_FK FOREIGN KEY(qId) REFERENCES Question(qId),
-   CONSTRAINT QuestionPattern_spId_FK FOREIGN KEY(spId) REFERENCES SubjectPattern(spId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="154">
   <x:si>
     <x:t>CREATE TABLE Question (
 	qId				BIGINT			PRIMARY KEY AUTO_INCREMENT,
+	qTitle			VARCHAR(100)	NOT NULL,
 	qText			VARCHAR(3500)	NOT NULL,
 	answer			INT				NOT NULL,
 	qComment		VARCHAR(1000)	NULL,
@@ -385,172 +47,262 @@
 )AUTO_INCREMENT = 1;</x:t>
   </x:si>
   <x:si>
-    <x:t>대쉬 포함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qcId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA 본문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cLevel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qcCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지문 텍스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제풀이 내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 텍스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문 조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2,3학년</x:t>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE MainText (
+   	mtId         	BIGINT         	PRIMARY KEY AUTO_INCREMENT,
+   	mText      		VARCHAR(3500)  	NOT NULL,
+   	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE SubjectPattern (
+   	spId      		BIGINT         	PRIMARY KEY AUTO_INCREMENT,
+   	pattern      	VARCHAR(20)    	NOT NULL,
+   	subject      	VARCHAR(10)    	NOT NULL,
+   	regDate      	TIMESTAMP      	NOT NULL	DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나혜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
   </x:si>
   <x:si>
     <x:t>길이</x:t>
   </x:si>
   <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
     <x:t>지문</x:t>
   </x:si>
   <x:si>
-    <x:t/>
+    <x:t>답안</x:t>
   </x:si>
   <x:si>
     <x:t>문제</x:t>
   </x:si>
   <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
     <x:t>아이디</x:t>
   </x:si>
   <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답안</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
     <x:t>NO</x:t>
   </x:si>
   <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나혜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수진</x:t>
+    <x:t>CREATE TABLE QuestionText (
+	qtId			BIGINT			PRIMARY KEY AUTO_INCREMENT,
+	totalText		VARCHAR(3500)  	NOT NULL,
+	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainText Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 풀이한 내역을 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QnaCount Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category Table key</x:t>
   </x:si>
   <x:si>
     <x:t>질문 전체 텍스트를 가지는 테이블</x:t>
   </x:si>
   <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목유형을 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답은 무조건 하나 인걸로 !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 정보담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제가 어떤 유형을 가지는지 확인 하는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT CURRENT_TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionHistory Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionPattern Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubjectPattern Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE QnaCount(
-	qcId			BIGINT			PRIMARY KEY      AUTO_INCREMENT,
-	qcCount			INT				NOT NULL DEFAULT 0,
-	qnaId			BIGINT			NOT NULL,
-	regDate			TIMESTAMP		NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-	CONSTRAINT QnaCount_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId)
+    <x:t>Answer Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제맞춰는지 확인하는 유무파악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE Qna(
+   	qnaId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
+   	subject			VARCHAR(500)	NOT NULL,
+	document		VARCHAR(3500)	NOT NULL,
+	cateId			BIGINT			NOT NULL,
+   	uId         	BIGINT     		NOT NULL,
+   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT Qna_cateId_FK FOREIGN KEY (cateId) REFERENCES Category(cateId),
+   CONSTRAINT Qna_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
 )AUTO_INCREMENT = 1;</x:t>
   </x:si>
   <x:si>
-    <x:t>manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 전체 텍스트</x:t>
+    <x:t>CREATE TABLE QuestionHistory(
+   	qhId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
+   	uId         	BIGINT     		NOT NULL,
+   	qId         	BIGINT     		NOT NULL,
+   	identify   		CHAR(1)      	NOT NULL,
+   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT QuestionHistory_uId_FK FOREIGN KEY (uId) REFERENCES User(uId),
+   CONSTRAINT QuestionHistory_qId_FK FOREIGN KEY (qId) REFERENCES Question(qId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>identify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>document</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>totalText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionHistory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입 m=중 h=고 e=기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qhId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mtId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qnaId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qpId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cateId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qtId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>addr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anId</x:t>
   </x:si>
   <x:si>
     <x:t>CREATE TABLE User (
@@ -564,6 +316,261 @@
    	manager			CHAR(1)			NOT NULL 	DEFAULT 'N',
    	regDate      	TIMESTAMP       NOT NULL 	DEFAULT CURRENT_TIMESTAMP
 )AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE QuestionPattern (
+   	qpId      		BIGINT          PRIMARY KEY AUTO_INCREMENT,
+   	qId         	BIGINT          NOT NULL,
+   	spId      		BIGINT          NOT NULL,
+   	regDate      	TIMESTAMP      	NOT NULL 	DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT QuestionPattern_qId_FK FOREIGN KEY(qId) REFERENCES Question(qId),
+   CONSTRAINT QuestionPattern_spId_FK FOREIGN KEY(spId) REFERENCES SubjectPattern(spId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE Answer(
+   	anId      		BIGINT      	PRIMARY KEY      AUTO_INCREMENT,
+	document		VARCHAR(1500)	NOT NULL,
+	qnaId      		BIGINT			NOT NULL,
+   	uId         	BIGINT     		NOT NULL,
+   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT Answer_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId),
+   CONSTRAINT Answer_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제텍스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bookie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qcCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 텍스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qcId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지문 텍스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문 조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대쉬 포함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB등록날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제풀이 내역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2,3학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA 본문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.08.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">e-mail로 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지문을 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 m=중 h=고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 본문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT 'N'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중,고등학생 구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QnaCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 전체 텍스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE QnaCount(
+	qcId			BIGINT			PRIMARY KEY      AUTO_INCREMENT,
+	qcCount			INT				NOT NULL DEFAULT 0,
+	qnaId			BIGINT			NOT NULL,
+	regDate			TIMESTAMP		NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+	CONSTRAINT QnaCount_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE Category (
+   	cateId      	BIGINT      	PRIMARY KEY AUTO_INCREMENT,
+   	cLevel      	CHAR(1)         NOT NULL,
+   	grade      		INT             NOT NULL,
+   	subject      	VARCHAR(10)     NOT NULL,
+   	regDate      	TIMESTAMP       NOT NULL    DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT=1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 정보담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목유형을 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답은 무조건 하나 인걸로 !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT CURRENT_TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제가 어떤 유형을 가지는지 확인 하는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionHistory Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionPattern Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText Table key</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -787,22 +794,6 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -840,8 +831,24 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
@@ -1532,107 +1539,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1640,21 +1647,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -1664,13 +1671,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>50</x:v>
@@ -1678,11 +1685,11 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1690,13 +1697,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="6">
         <x:v>20</x:v>
@@ -1704,7 +1711,7 @@
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -1714,13 +1721,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E9" s="6">
         <x:v>20</x:v>
@@ -1728,7 +1735,7 @@
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -1738,13 +1745,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E10" s="6">
         <x:v>1</x:v>
@@ -1752,11 +1759,11 @@
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1764,13 +1771,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E11" s="6">
         <x:v>13</x:v>
@@ -1778,11 +1785,11 @@
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1790,13 +1797,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>60</x:v>
@@ -1804,7 +1811,7 @@
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="3"/>
@@ -1814,13 +1821,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E13" s="4">
         <x:v>1</x:v>
@@ -1828,11 +1835,11 @@
       <x:c r="F13" s="4"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1840,23 +1847,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I14" s="4"/>
       <x:c r="J14" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1909,84 +1916,84 @@
     </x:row>
     <x:row r="19" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E19" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J19" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="13" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="17" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A21" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B21" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C21" s="17" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="D21" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E21" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F21" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G21" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H21" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I21" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J21" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A21" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B21" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C21" s="16" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J21" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2009,7 +2016,7 @@
     <x:mergeCell ref="C2:E2"/>
     <x:mergeCell ref="C3:E3"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2041,107 +2048,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2149,21 +2156,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -2173,13 +2180,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>1500</x:v>
@@ -2187,7 +2194,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -2197,21 +2204,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -2221,21 +2228,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H9" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -2245,23 +2252,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2350,85 +2357,85 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
+      <x:c r="A20" s="15" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2450,7 +2457,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2482,107 +2489,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2590,21 +2597,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -2614,23 +2621,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>133</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>119</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="6"/>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2638,21 +2645,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -2662,23 +2669,23 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="11" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2779,85 +2786,85 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -2879,7 +2886,7 @@
     <x:mergeCell ref="F3:H3"/>
     <x:mergeCell ref="I3:J3"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2911,107 +2918,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3022,18 +3029,18 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -3043,13 +3050,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>1</x:v>
@@ -3057,11 +3064,11 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3069,23 +3076,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>119</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3093,13 +3100,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E9" s="6">
         <x:v>10</x:v>
@@ -3107,7 +3114,7 @@
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -3117,23 +3124,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3222,98 +3229,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J20" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J20" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3336,7 +3343,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3368,107 +3375,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3476,21 +3483,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -3500,13 +3507,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>20</x:v>
@@ -3514,7 +3521,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -3524,13 +3531,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="6">
         <x:v>10</x:v>
@@ -3538,7 +3545,7 @@
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -3548,23 +3555,23 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3665,98 +3672,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J20" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J20" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3779,7 +3786,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3811,107 +3818,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3919,21 +3926,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -3943,13 +3950,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>3500</x:v>
@@ -3957,7 +3964,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -3967,23 +3974,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4096,98 +4103,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J20" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J20" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4210,7 +4217,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4222,8 +4229,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:J20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C20" activeCellId="0" sqref="C20:J20"/>
+    <x:sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C8" activeCellId="0" sqref="C8:C8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -4242,107 +4249,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4350,21 +4357,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -4374,13 +4381,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>3500</x:v>
@@ -4388,7 +4395,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -4398,23 +4405,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4527,98 +4534,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J20" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J20" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4641,7 +4648,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4651,10 +4658,10 @@
   <x:sheetPr codeName="Sheet5">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J20"/>
+  <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C20" activeCellId="0" sqref="C20:J20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C21" activeCellId="0" sqref="C21:J21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -4673,107 +4680,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4781,333 +4788,359 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
     </x:row>
     <x:row r="7" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A7" s="6">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="6">
-        <x:v>3500</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A8" s="6">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E8" s="6">
+        <x:v>3500</x:v>
+      </x:c>
+      <x:c r="F8" s="6"/>
+      <x:c r="G8" s="6"/>
+      <x:c r="H8" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I8" s="6"/>
+      <x:c r="J8" s="7"/>
+    </x:row>
+    <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A9" s="6">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="E8" s="4"/>
-      <x:c r="F8" s="4"/>
-      <x:c r="G8" s="4"/>
-      <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I8" s="4"/>
-      <x:c r="J8" s="3" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A9" s="4">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E9" s="4">
-        <x:v>1000</x:v>
-      </x:c>
+      <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
-      <x:c r="J9" s="3"/>
+      <x:c r="J9" s="3" t="s">
+        <x:v>147</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A10" s="4"/>
+      <x:c r="A10" s="6">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="B10" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E10" s="4"/>
+      <x:c r="E10" s="4">
+        <x:v>1000</x:v>
+      </x:c>
       <x:c r="F10" s="4"/>
-      <x:c r="G10" s="4" t="s">
-        <x:v>132</x:v>
-      </x:c>
+      <x:c r="G10" s="4"/>
       <x:c r="H10" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="3"/>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A11" s="4">
+      <x:c r="A11" s="6">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D11" s="4" t="s">
-        <x:v>25</x:v>
+      <x:c r="B11" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="H11" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H11" s="6" t="s">
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
-      <x:c r="J11" s="10"/>
+      <x:c r="J11" s="3"/>
     </x:row>
     <x:row r="12" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A12" s="4">
+      <x:c r="A12" s="6">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B12" s="5" t="s">
+      <x:c r="B12" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E12" s="4"/>
+      <x:c r="F12" s="4"/>
+      <x:c r="G12" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H12" s="4" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I12" s="4"/>
+      <x:c r="J12" s="10"/>
+    </x:row>
+    <x:row r="13" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A13" s="6">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C12" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D12" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E12" s="6"/>
-      <x:c r="F12" s="6"/>
-      <x:c r="G12" s="6" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="H12" s="6" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I12" s="6"/>
-      <x:c r="J12" s="7"/>
-    </x:row>
-    <x:row r="13" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A13" s="4">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B13" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C13" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D13" s="4" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E13" s="4"/>
-      <x:c r="F13" s="4"/>
-      <x:c r="G13" s="4"/>
-      <x:c r="H13" s="4" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I13" s="4"/>
-      <x:c r="J13" s="10" t="s">
-        <x:v>144</x:v>
-      </x:c>
+      <x:c r="C13" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D13" s="6" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E13" s="6"/>
+      <x:c r="F13" s="6"/>
+      <x:c r="G13" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H13" s="6" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I13" s="6"/>
+      <x:c r="J13" s="7"/>
     </x:row>
     <x:row r="14" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A14" s="4"/>
-      <x:c r="B14" s="3"/>
-      <x:c r="C14" s="3"/>
-      <x:c r="D14" s="4"/>
+      <x:c r="A14" s="6">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B14" s="10" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C14" s="10" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D14" s="4" t="s">
+        <x:v>126</x:v>
+      </x:c>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
-      <x:c r="H14" s="6"/>
+      <x:c r="H14" s="4" t="s">
+        <x:v>137</x:v>
+      </x:c>
       <x:c r="I14" s="4"/>
-      <x:c r="J14" s="3"/>
+      <x:c r="J14" s="10" t="s">
+        <x:v>148</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A15" s="4"/>
       <x:c r="B15" s="3"/>
-      <x:c r="C15" s="5"/>
+      <x:c r="C15" s="3"/>
       <x:c r="D15" s="4"/>
       <x:c r="E15" s="4"/>
       <x:c r="F15" s="4"/>
       <x:c r="G15" s="4"/>
-      <x:c r="H15" s="4"/>
+      <x:c r="H15" s="6"/>
       <x:c r="I15" s="4"/>
       <x:c r="J15" s="3"/>
     </x:row>
     <x:row r="16" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A16" s="4"/>
-      <x:c r="B16" s="5"/>
+      <x:c r="B16" s="3"/>
       <x:c r="C16" s="5"/>
-      <x:c r="D16" s="6"/>
-      <x:c r="E16" s="6"/>
-      <x:c r="F16" s="6"/>
-      <x:c r="G16" s="6"/>
-      <x:c r="H16" s="6"/>
-      <x:c r="I16" s="6"/>
-      <x:c r="J16" s="7"/>
+      <x:c r="D16" s="4"/>
+      <x:c r="E16" s="4"/>
+      <x:c r="F16" s="4"/>
+      <x:c r="G16" s="4"/>
+      <x:c r="H16" s="4"/>
+      <x:c r="I16" s="4"/>
+      <x:c r="J16" s="3"/>
     </x:row>
     <x:row r="17" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A17" s="4"/>
-      <x:c r="B17" s="9"/>
-      <x:c r="C17" s="9"/>
-      <x:c r="D17" s="4"/>
-      <x:c r="E17" s="4"/>
-      <x:c r="F17" s="4"/>
-      <x:c r="G17" s="4"/>
-      <x:c r="H17" s="4"/>
-      <x:c r="I17" s="4"/>
-      <x:c r="J17" s="9"/>
+      <x:c r="B17" s="5"/>
+      <x:c r="C17" s="5"/>
+      <x:c r="D17" s="6"/>
+      <x:c r="E17" s="6"/>
+      <x:c r="F17" s="6"/>
+      <x:c r="G17" s="6"/>
+      <x:c r="H17" s="6"/>
+      <x:c r="I17" s="6"/>
+      <x:c r="J17" s="7"/>
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J18" s="3" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
+      <x:c r="A18" s="4"/>
+      <x:c r="B18" s="9"/>
+      <x:c r="C18" s="9"/>
+      <x:c r="D18" s="4"/>
+      <x:c r="E18" s="4"/>
+      <x:c r="F18" s="4"/>
+      <x:c r="G18" s="4"/>
+      <x:c r="H18" s="4"/>
+      <x:c r="I18" s="4"/>
+      <x:c r="J18" s="9"/>
+    </x:row>
+    <x:row r="19" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A19" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D19" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
+      <x:c r="A20" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C20" s="17" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J20" s="13" t="s">
-        <x:v>116</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
+      <x:c r="A21" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B21" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C21" s="16" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I21" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J21" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5121,16 +5154,16 @@
     <x:mergeCell ref="C2:E2"/>
     <x:mergeCell ref="F2:H2"/>
     <x:mergeCell ref="I2:J2"/>
-    <x:mergeCell ref="A20:B20"/>
-    <x:mergeCell ref="C20:J20"/>
+    <x:mergeCell ref="A21:B21"/>
+    <x:mergeCell ref="C21:J21"/>
     <x:mergeCell ref="A4:B4"/>
     <x:mergeCell ref="C4:E4"/>
     <x:mergeCell ref="F4:H4"/>
     <x:mergeCell ref="I4:J4"/>
-    <x:mergeCell ref="A19:B19"/>
-    <x:mergeCell ref="C19:J19"/>
+    <x:mergeCell ref="A20:B20"/>
+    <x:mergeCell ref="C20:J20"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5162,107 +5195,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5270,21 +5303,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>146</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -5294,21 +5327,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E7" s="6"/>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -5318,21 +5351,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -5342,23 +5375,23 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5459,98 +5492,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J20" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J20" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5573,7 +5606,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5605,107 +5638,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
+    </x:row>
+    <x:row r="3" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
+    </x:row>
+    <x:row r="4" spans="1:10" ht="27" customHeight="1">
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
-    </x:row>
-    <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
-    </x:row>
-    <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5713,21 +5746,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>145</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -5737,21 +5770,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E7" s="6"/>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -5761,21 +5794,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -5785,13 +5818,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>1</x:v>
@@ -5799,11 +5832,11 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5811,23 +5844,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="3" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5916,98 +5949,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I20" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J20" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I20" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J20" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6030,7 +6063,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -6062,107 +6095,107 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A1" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="16"/>
-      <x:c r="C1" s="16"/>
-      <x:c r="D1" s="16"/>
-      <x:c r="E1" s="16"/>
-      <x:c r="F1" s="16"/>
-      <x:c r="G1" s="16"/>
-      <x:c r="H1" s="16"/>
-      <x:c r="I1" s="16"/>
-      <x:c r="J1" s="16"/>
+      <x:c r="A1" s="14" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="14"/>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14"/>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14"/>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14"/>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A2" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="14"/>
-      <x:c r="C2" s="15" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D2" s="15"/>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G2" s="14"/>
-      <x:c r="H2" s="14"/>
-      <x:c r="I2" s="15" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J2" s="15"/>
+      <x:c r="A2" s="12" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="13" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D2" s="13"/>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="12" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="13" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A3" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="14"/>
-      <x:c r="C3" s="15" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D3" s="15"/>
-      <x:c r="E3" s="15"/>
-      <x:c r="F3" s="14" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="14"/>
-      <x:c r="H3" s="14"/>
-      <x:c r="I3" s="15"/>
-      <x:c r="J3" s="15"/>
+      <x:c r="A3" s="12" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="13" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D3" s="13"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="12" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G3" s="12"/>
+      <x:c r="H3" s="12"/>
+      <x:c r="I3" s="13"/>
+      <x:c r="J3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
-      <x:c r="A4" s="14" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="14"/>
-      <x:c r="C4" s="15" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="15"/>
-      <x:c r="F4" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="14"/>
-      <x:c r="H4" s="14"/>
-      <x:c r="I4" s="15" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="J4" s="15"/>
+      <x:c r="A4" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="13" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D4" s="13"/>
+      <x:c r="E4" s="13"/>
+      <x:c r="F4" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G4" s="12"/>
+      <x:c r="H4" s="12"/>
+      <x:c r="I4" s="13" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -6170,21 +6203,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -6194,13 +6227,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>500</x:v>
@@ -6208,7 +6241,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -6218,13 +6251,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E8" s="6">
         <x:v>3500</x:v>
@@ -6232,7 +6265,7 @@
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -6245,18 +6278,18 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H9" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -6266,21 +6299,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E10" s="6"/>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H10" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="7"/>
@@ -6288,23 +6321,23 @@
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A11" s="4"/>
       <x:c r="B11" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -6381,85 +6414,85 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J18" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B19" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C19" s="13" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="13" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J19" s="13" t="s">
-        <x:v>116</x:v>
+      <x:c r="A19" s="15" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B19" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C19" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I19" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J19" s="17" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="12" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B20" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C20" s="17" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D20" s="13"/>
-      <x:c r="E20" s="13"/>
-      <x:c r="F20" s="13"/>
-      <x:c r="G20" s="13"/>
-      <x:c r="H20" s="13"/>
-      <x:c r="I20" s="13"/>
-      <x:c r="J20" s="13"/>
+      <x:c r="A20" s="15" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B20" s="15" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="16" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="17"/>
+      <x:c r="F20" s="17"/>
+      <x:c r="G20" s="17"/>
+      <x:c r="H20" s="17"/>
+      <x:c r="I20" s="17"/>
+      <x:c r="J20" s="17"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="17">
@@ -6481,7 +6514,7 @@
     <x:mergeCell ref="A19:B19"/>
     <x:mergeCell ref="C19:J19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.39361110329627991" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55111110210418701" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/bookie/etc/Bookie_DB_TABLE.xlsx
+++ b/bookie/etc/Bookie_DB_TABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="815" firstSheet="3" activeTab="5"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="8550" tabRatio="815" firstSheet="3" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="User" sheetId="1" r:id="rId4"/>
@@ -29,7 +29,382 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="154">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="156">
+  <x:si>
+    <x:t>CREATE TABLE QuestionPattern (
+   	qpId      		BIGINT          PRIMARY KEY AUTO_INCREMENT,
+   	qId         	BIGINT          NOT NULL,
+   	spId      		BIGINT          NOT NULL,
+   	regDate      	TIMESTAMP      	NOT NULL 	DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT QuestionPattern_qId_FK FOREIGN KEY(qId) REFERENCES Question(qId),
+   CONSTRAINT QuestionPattern_spId_FK FOREIGN KEY(spId) REFERENCES SubjectPattern(spId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE Qna(
+   	qnaId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
+   	subject			VARCHAR(500)	NOT NULL,
+	document		VARCHAR(3500)	NOT NULL,
+	cateId			BIGINT			NOT NULL,
+   	uId         	BIGINT     		NOT NULL,
+   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT Qna_cateId_FK FOREIGN KEY (cateId) REFERENCES Category(cateId),
+   CONSTRAINT Qna_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE QuestionText (
+	qtId			BIGINT			PRIMARY KEY AUTO_INCREMENT,
+	totalText		VARCHAR(3500)  	NOT NULL,
+	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE QuestionHistory(
+   	qhId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
+   	uId         	BIGINT     		NOT NULL,
+   	qId         	BIGINT     		NOT NULL,
+   	identify   		CHAR(1)      	NOT NULL,
+   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT QuestionHistory_uId_FK FOREIGN KEY (uId) REFERENCES User(uId),
+   CONSTRAINT QuestionHistory_qId_FK FOREIGN KEY (qId) REFERENCES Question(qId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE Answer(
+   	anId      		BIGINT      	PRIMARY KEY      AUTO_INCREMENT,
+	document		VARCHAR(1500)	NOT NULL,
+	qnaId      		BIGINT			NOT NULL,
+   	uId         	BIGINT     		NOT NULL,
+   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+   CONSTRAINT Answer_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId),
+   CONSTRAINT Answer_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bigPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE SubjectPattern (
+   	spId      		BIGINT         	PRIMARY KEY AUTO_INCREMENT,
+   	pattern      	VARCHAR(20)    	NOT NULL,
+   	subject      	VARCHAR(10)    	NOT NULL,
+   	regDate      	TIMESTAMP      	NOT NULL	DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>totalText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qComment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>identify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>document</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionPattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입 m=중 h=고 e=기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionHistory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE MainText (
+   	mtId         	BIGINT         	PRIMARY KEY AUTO_INCREMENT,
+   	mText      		VARCHAR(3500)  	NOT NULL,
+   	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qnaId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qpId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qhId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mtId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cateId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qtId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>addr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>passwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나혜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길이</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>지문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답안</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자정보를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목유형을 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답은 무조건 하나 인걸로 !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 정보담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 풀이한 내역을 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainText Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문 전체 텍스트를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제맞춰는지 확인하는 유무파악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QnaCount Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">e-mail로 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>MainText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022.08.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지문을 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 m=중 h=고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer 본문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT 'N'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULLABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QnaCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Major Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 전체 텍스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제를 가지는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중,고등학생 구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE QnaCount(
+	qcId			BIGINT			PRIMARY KEY      AUTO_INCREMENT,
+	qcCount			INT				NOT NULL DEFAULT 0,
+	qnaId			BIGINT			NOT NULL,
+	regDate			TIMESTAMP		NOT NULL   DEFAULT CURRENT_TIMESTAMP,
+	CONSTRAINT QnaCount_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId)
+)AUTO_INCREMENT = 1;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE Category (
+   	cateId      	BIGINT      	PRIMARY KEY AUTO_INCREMENT,
+   	cLevel      	CHAR(1)         NOT NULL,
+   	grade      		INT             NOT NULL,
+   	subject      	VARCHAR(10)     NOT NULL,
+   	regDate      	TIMESTAMP       NOT NULL    DEFAULT CURRENT_TIMESTAMP
+)AUTO_INCREMENT=1;</x:t>
+  </x:si>
   <x:si>
     <x:t>CREATE TABLE Question (
 	qId				BIGINT			PRIMARY KEY AUTO_INCREMENT,
@@ -47,264 +422,6 @@
 )AUTO_INCREMENT = 1;</x:t>
   </x:si>
   <x:si>
-    <x:t>qTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE MainText (
-   	mtId         	BIGINT         	PRIMARY KEY AUTO_INCREMENT,
-   	mText      		VARCHAR(3500)  	NOT NULL,
-   	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE SubjectPattern (
-   	spId      		BIGINT         	PRIMARY KEY AUTO_INCREMENT,
-   	pattern      	VARCHAR(20)    	NOT NULL,
-   	subject      	VARCHAR(10)    	NOT NULL,
-   	regDate      	TIMESTAMP      	NOT NULL	DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나혜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길이</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>지문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답안</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE QuestionText (
-	qtId			BIGINT			PRIMARY KEY AUTO_INCREMENT,
-	totalText		VARCHAR(3500)  	NOT NULL,
-	regDate      	TIMESTAMP	   	NOT NULL 	DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 풀이한 내역을 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QnaCount Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문 전체 텍스트를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제맞춰는지 확인하는 유무파악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE Qna(
-   	qnaId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
-   	subject			VARCHAR(500)	NOT NULL,
-	document		VARCHAR(3500)	NOT NULL,
-	cateId			BIGINT			NOT NULL,
-   	uId         	BIGINT     		NOT NULL,
-   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT Qna_cateId_FK FOREIGN KEY (cateId) REFERENCES Category(cateId),
-   CONSTRAINT Qna_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE QuestionHistory(
-   	qhId      		BIGINT      	PRIMARY KEY AUTO_INCREMENT,
-   	uId         	BIGINT     		NOT NULL,
-   	qId         	BIGINT     		NOT NULL,
-   	identify   		CHAR(1)      	NOT NULL,
-   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT QuestionHistory_uId_FK FOREIGN KEY (uId) REFERENCES User(uId),
-   CONSTRAINT QuestionHistory_qId_FK FOREIGN KEY (qId) REFERENCES Question(qId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>identify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>document</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qComment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>totalText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubjectPattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionPattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionHistory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타입 m=중 h=고 e=기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qhId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mtId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qnaId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qpId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cateId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qtId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>passwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>anId</x:t>
-  </x:si>
-  <x:si>
     <x:t>CREATE TABLE User (
    	uId         	BIGINT         	PRIMARY KEY AUTO_INCREMENT,
    	userId      	VARCHAR(50)     NOT NULL,
@@ -318,259 +435,148 @@
 )AUTO_INCREMENT = 1;</x:t>
   </x:si>
   <x:si>
-    <x:t>CREATE TABLE QuestionPattern (
-   	qpId      		BIGINT          PRIMARY KEY AUTO_INCREMENT,
-   	qId         	BIGINT          NOT NULL,
-   	spId      		BIGINT          NOT NULL,
-   	regDate      	TIMESTAMP      	NOT NULL 	DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT QuestionPattern_qId_FK FOREIGN KEY(qId) REFERENCES Question(qId),
-   CONSTRAINT QuestionPattern_spId_FK FOREIGN KEY(spId) REFERENCES SubjectPattern(spId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE Answer(
-   	anId      		BIGINT      	PRIMARY KEY      AUTO_INCREMENT,
-	document		VARCHAR(1500)	NOT NULL,
-	qnaId      		BIGINT			NOT NULL,
-   	uId         	BIGINT     		NOT NULL,
-   	regDate      	TIMESTAMP   	NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-   CONSTRAINT Answer_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId),
-   CONSTRAINT Answer_uId_FK FOREIGN KEY (uId) REFERENCES User(uId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 제목</x:t>
+    <x:t>문제텍스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bookie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qcCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIGINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작  성  자</x:t>
   </x:si>
   <x:si>
     <x:t>작  성  일</x:t>
   </x:si>
   <x:si>
+    <x:t>인  덱  스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 텍스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변 테이블</x:t>
+  </x:si>
+  <x:si>
     <x:t>카테고리</x:t>
   </x:si>
   <x:si>
-    <x:t>CHAR</x:t>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QNA 질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDate</x:t>
   </x:si>
   <x:si>
     <x:t>테이블 정의서</x:t>
   </x:si>
   <x:si>
-    <x:t>인  덱  스</x:t>
+    <x:t>모  듈  명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
   </x:si>
   <x:si>
     <x:t>과목유형</x:t>
   </x:si>
   <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIGINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제텍스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bookie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모  듈  명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작  성  자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qcCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 텍스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변 테이블</x:t>
+    <x:t>질문 조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대쉬 포함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
   </x:si>
   <x:si>
     <x:t>cLevel</x:t>
   </x:si>
   <x:si>
-    <x:t>문제유형</x:t>
-  </x:si>
-  <x:si>
     <x:t>qcId</x:t>
   </x:si>
   <x:si>
     <x:t>지문 텍스트</x:t>
   </x:si>
   <x:si>
-    <x:t>질문테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문 조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대쉬 포함</x:t>
+    <x:t>QNA 본문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager</x:t>
   </x:si>
   <x:si>
     <x:t>DB등록날짜</x:t>
   </x:si>
   <x:si>
+    <x:t>1,2,3학년</x:t>
+  </x:si>
+  <x:si>
     <x:t>관리자 확인</x:t>
   </x:si>
   <x:si>
     <x:t>문제풀이 내역</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2,3학년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>manager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA 본문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022.08.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">e-mail로 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>MainText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지문을 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨 m=중 h=고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Answer 본문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT 'N'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중,고등학생 구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QnaCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Major Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULLABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 전체 텍스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE QnaCount(
-	qcId			BIGINT			PRIMARY KEY      AUTO_INCREMENT,
-	qcCount			INT				NOT NULL DEFAULT 0,
-	qnaId			BIGINT			NOT NULL,
-	regDate			TIMESTAMP		NOT NULL   DEFAULT CURRENT_TIMESTAMP,
-	CONSTRAINT QnaCount_qnaId_FK FOREIGN KEY (qnaId) REFERENCES Qna(qnaId)
-)AUTO_INCREMENT = 1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE Category (
-   	cateId      	BIGINT      	PRIMARY KEY AUTO_INCREMENT,
-   	cLevel      	CHAR(1)         NOT NULL,
-   	grade      		INT             NOT NULL,
-   	subject      	VARCHAR(10)     NOT NULL,
-   	regDate      	TIMESTAMP       NOT NULL    DEFAULT CURRENT_TIMESTAMP
-)AUTO_INCREMENT=1;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자정보를 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QNA Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 정보담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목유형을 가지는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답은 무조건 하나 인걸로 !</x:t>
+    <x:t>QuestionHistory Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SubjectPattern Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QuestionPattern Table key</x:t>
   </x:si>
   <x:si>
     <x:t>DEFAULT CURRENT_TIMESTAMP</x:t>
   </x:si>
   <x:si>
-    <x:t>SubjectPattern Table key</x:t>
-  </x:si>
-  <x:si>
     <x:t>문제가 어떤 유형을 가지는지 확인 하는 테이블</x:t>
   </x:si>
   <x:si>
-    <x:t>QuestionHistory Table key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QuestionPattern Table key</x:t>
-  </x:si>
-  <x:si>
     <x:t>QuestionText Table key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>midPattern</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -608,26 +614,11 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1540,7 +1531,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -1554,36 +1545,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>22</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -1592,54 +1583,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>142</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1647,21 +1638,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -1671,13 +1662,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>50</x:v>
@@ -1685,11 +1676,11 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1697,13 +1688,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E8" s="6">
         <x:v>20</x:v>
@@ -1711,7 +1702,7 @@
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -1721,13 +1712,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E9" s="6">
         <x:v>20</x:v>
@@ -1735,7 +1726,7 @@
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -1745,13 +1736,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="C10" s="5" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="E10" s="6">
         <x:v>1</x:v>
@@ -1759,11 +1750,11 @@
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1771,13 +1762,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E11" s="6">
         <x:v>13</x:v>
@@ -1785,11 +1776,11 @@
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1797,13 +1788,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E12" s="4">
         <x:v>60</x:v>
@@ -1811,7 +1802,7 @@
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="3"/>
@@ -1821,13 +1812,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>120</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E13" s="4">
         <x:v>1</x:v>
@@ -1835,11 +1826,11 @@
       <x:c r="F13" s="4"/>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1847,23 +1838,23 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I14" s="4"/>
       <x:c r="J14" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1916,45 +1907,45 @@
     </x:row>
     <x:row r="19" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="17" t="s">
-        <x:v>4</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D20" s="17"/>
       <x:c r="E20" s="17"/>
@@ -1966,34 +1957,34 @@
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B21" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C21" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2049,7 +2040,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -2063,36 +2054,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -2101,54 +2092,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>114</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>105</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2156,21 +2147,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -2180,13 +2171,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>129</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>1500</x:v>
@@ -2194,7 +2185,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -2204,21 +2195,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>144</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -2228,21 +2219,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H9" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -2252,23 +2243,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2357,77 +2348,77 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>79</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D20" s="17"/>
       <x:c r="E20" s="17"/>
@@ -2490,7 +2481,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -2504,36 +2495,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>133</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -2542,54 +2533,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>133</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>112</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2597,21 +2588,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -2621,23 +2612,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E7" s="6"/>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2645,21 +2636,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -2669,23 +2660,23 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="11" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2786,77 +2777,77 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>140</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D20" s="17"/>
       <x:c r="E20" s="17"/>
@@ -2919,7 +2910,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -2933,36 +2924,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -2971,54 +2962,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>145</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3026,21 +3017,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -3050,13 +3041,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>132</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>1</x:v>
@@ -3064,11 +3055,11 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7" t="s">
-        <x:v>128</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3076,23 +3067,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3100,13 +3091,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E9" s="6">
         <x:v>10</x:v>
@@ -3114,7 +3105,7 @@
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -3124,23 +3115,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3229,98 +3220,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>141</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3353,10 +3344,10 @@
   <x:sheetPr codeName="Sheet3">
     <x:tabColor rgb="ff70ad47"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J20"/>
+  <x:dimension ref="A1:J22"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C20" activeCellId="0" sqref="C20:J20"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C11" activeCellId="0" sqref="C11:C11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -3376,7 +3367,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -3390,36 +3381,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>86</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -3428,54 +3419,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>52</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>146</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3483,21 +3474,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -3507,13 +3498,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>20</x:v>
@@ -3521,116 +3512,126 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
     </x:row>
     <x:row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A8" s="6">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="A8" s="6"/>
       <x:c r="B8" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E8" s="6">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
     </x:row>
     <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A9" s="6">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E9" s="4"/>
-      <x:c r="F9" s="4"/>
-      <x:c r="G9" s="4"/>
-      <x:c r="H9" s="4" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="I9" s="4"/>
-      <x:c r="J9" s="3" t="s">
-        <x:v>148</x:v>
-      </x:c>
+      <x:c r="A9" s="6"/>
+      <x:c r="B9" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C9" s="5" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E9" s="6"/>
+      <x:c r="F9" s="6"/>
+      <x:c r="G9" s="6" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H9" s="6" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I9" s="6"/>
+      <x:c r="J9" s="7"/>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A10" s="4"/>
-      <x:c r="B10" s="3"/>
-      <x:c r="C10" s="3"/>
-      <x:c r="D10" s="4"/>
+      <x:c r="A10" s="6">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
-      <x:c r="H10" s="4"/>
+      <x:c r="H10" s="4" t="s">
+        <x:v>102</x:v>
+      </x:c>
       <x:c r="I10" s="4"/>
-      <x:c r="J10" s="3"/>
+      <x:c r="J10" s="3" t="s">
+        <x:v>152</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A11" s="4"/>
-      <x:c r="B11" s="5"/>
-      <x:c r="C11" s="5"/>
-      <x:c r="D11" s="6"/>
-      <x:c r="E11" s="6"/>
-      <x:c r="F11" s="6"/>
-      <x:c r="G11" s="6"/>
-      <x:c r="H11" s="6"/>
+      <x:c r="A11" s="6">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B11" s="3"/>
+      <x:c r="C11" s="3"/>
+      <x:c r="D11" s="4"/>
+      <x:c r="E11" s="4"/>
+      <x:c r="F11" s="4"/>
+      <x:c r="G11" s="4"/>
+      <x:c r="H11" s="4"/>
       <x:c r="I11" s="4"/>
-      <x:c r="J11" s="7"/>
+      <x:c r="J11" s="3"/>
     </x:row>
     <x:row r="12" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A12" s="4"/>
       <x:c r="B12" s="3"/>
       <x:c r="C12" s="3"/>
-      <x:c r="D12" s="6"/>
+      <x:c r="D12" s="4"/>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4"/>
-      <x:c r="H12" s="6"/>
+      <x:c r="H12" s="4"/>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="3"/>
     </x:row>
     <x:row r="13" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A13" s="4"/>
-      <x:c r="B13" s="3"/>
-      <x:c r="C13" s="3"/>
-      <x:c r="D13" s="4"/>
-      <x:c r="E13" s="4"/>
-      <x:c r="F13" s="4"/>
-      <x:c r="G13" s="4"/>
-      <x:c r="H13" s="4"/>
+      <x:c r="B13" s="5"/>
+      <x:c r="C13" s="5"/>
+      <x:c r="D13" s="6"/>
+      <x:c r="E13" s="6"/>
+      <x:c r="F13" s="6"/>
+      <x:c r="G13" s="6"/>
+      <x:c r="H13" s="6"/>
       <x:c r="I13" s="4"/>
-      <x:c r="J13" s="3"/>
+      <x:c r="J13" s="7"/>
     </x:row>
     <x:row r="14" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A14" s="4"/>
       <x:c r="B14" s="3"/>
       <x:c r="C14" s="3"/>
-      <x:c r="D14" s="4"/>
+      <x:c r="D14" s="6"/>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
-      <x:c r="H14" s="4"/>
+      <x:c r="H14" s="6"/>
       <x:c r="I14" s="4"/>
       <x:c r="J14" s="3"/>
     </x:row>
@@ -3671,99 +3672,123 @@
       <x:c r="J17" s="3"/>
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J18" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C19" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
-      <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C20" s="16" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D20" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E20" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F20" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G20" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H20" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I20" s="17" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J20" s="17" t="s">
-        <x:v>16</x:v>
+      <x:c r="A18" s="4"/>
+      <x:c r="B18" s="3"/>
+      <x:c r="C18" s="3"/>
+      <x:c r="D18" s="4"/>
+      <x:c r="E18" s="4"/>
+      <x:c r="F18" s="4"/>
+      <x:c r="G18" s="4"/>
+      <x:c r="H18" s="4"/>
+      <x:c r="I18" s="4"/>
+      <x:c r="J18" s="3"/>
+    </x:row>
+    <x:row r="19" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A19" s="4"/>
+      <x:c r="B19" s="3"/>
+      <x:c r="C19" s="3"/>
+      <x:c r="D19" s="4"/>
+      <x:c r="E19" s="4"/>
+      <x:c r="F19" s="4"/>
+      <x:c r="G19" s="4"/>
+      <x:c r="H19" s="4"/>
+      <x:c r="I19" s="4"/>
+      <x:c r="J19" s="3"/>
+    </x:row>
+    <x:row r="20" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <x:c r="A20" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D20" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E20" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F20" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G20" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H20" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I20" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J20" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10" ht="49.5" customHeight="1">
+      <x:c r="A21" s="15" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B21" s="15" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C21" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D21" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E21" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F21" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G21" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H21" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I21" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J21" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10" ht="224.09999999999999" customHeight="1">
+      <x:c r="A22" s="15" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B22" s="15" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C22" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E22" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F22" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G22" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H22" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I22" s="17" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J22" s="17" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3777,14 +3802,14 @@
     <x:mergeCell ref="C2:E2"/>
     <x:mergeCell ref="F2:H2"/>
     <x:mergeCell ref="I2:J2"/>
-    <x:mergeCell ref="A20:B20"/>
-    <x:mergeCell ref="C20:J20"/>
+    <x:mergeCell ref="A22:B22"/>
+    <x:mergeCell ref="C22:J22"/>
     <x:mergeCell ref="A4:B4"/>
     <x:mergeCell ref="C4:E4"/>
     <x:mergeCell ref="F4:H4"/>
     <x:mergeCell ref="I4:J4"/>
-    <x:mergeCell ref="A19:B19"/>
-    <x:mergeCell ref="C19:J19"/>
+    <x:mergeCell ref="A21:B21"/>
+    <x:mergeCell ref="C21:J21"/>
   </x:mergeCells>
   <x:pageMargins left="0.39347222447395325" right="0.31486111879348755" top="0.59041666984558105" bottom="0.55097222328186035" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -3819,7 +3844,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -3833,36 +3858,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>17</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -3871,54 +3896,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>125</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>127</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -3926,21 +3951,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -3950,13 +3975,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>3500</x:v>
@@ -3964,7 +3989,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -3974,23 +3999,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4103,98 +4128,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4250,7 +4275,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -4264,36 +4289,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>89</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -4302,54 +4327,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4357,21 +4382,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -4381,13 +4406,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>139</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>3500</x:v>
@@ -4395,7 +4420,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -4405,23 +4430,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="4"/>
       <x:c r="G8" s="4"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4534,98 +4559,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4660,7 +4685,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="C21" activeCellId="0" sqref="C21:J21"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4681,7 +4706,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -4695,36 +4720,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>19</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -4733,54 +4758,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>138</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>131</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4788,21 +4813,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -4812,13 +4837,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>100</x:v>
@@ -4826,7 +4851,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -4836,13 +4861,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E8" s="6">
         <x:v>3500</x:v>
@@ -4850,7 +4875,7 @@
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -4860,23 +4885,23 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4884,13 +4909,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E10" s="4">
         <x:v>1000</x:v>
@@ -4898,7 +4923,7 @@
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="3"/>
@@ -4908,21 +4933,21 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H11" s="6" t="s">
-        <x:v>136</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="3"/>
@@ -4932,21 +4957,21 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="4"/>
       <x:c r="G12" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H12" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="10"/>
@@ -4956,21 +4981,21 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D13" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E13" s="6"/>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H13" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I13" s="6"/>
       <x:c r="J13" s="7"/>
@@ -4980,23 +5005,23 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="4"/>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I14" s="4"/>
       <x:c r="J14" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5049,98 +5074,98 @@
     </x:row>
     <x:row r="19" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A21" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B21" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C21" s="16" t="s">
-        <x:v>0</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J21" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5196,7 +5221,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -5210,36 +5235,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>107</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -5248,54 +5273,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>53</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5303,21 +5328,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -5327,21 +5352,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E7" s="6"/>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -5351,21 +5376,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -5375,23 +5400,23 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5492,98 +5517,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>78</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5639,7 +5664,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -5653,36 +5678,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>118</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -5691,54 +5716,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5746,21 +5771,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -5770,21 +5795,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E7" s="6"/>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -5794,21 +5819,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E8" s="6"/>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -5818,13 +5843,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E9" s="4">
         <x:v>1</x:v>
@@ -5832,11 +5857,11 @@
       <x:c r="F9" s="4"/>
       <x:c r="G9" s="4"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5844,23 +5869,23 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="4"/>
       <x:c r="G10" s="4"/>
       <x:c r="H10" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -5949,98 +5974,98 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>36</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J20" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6096,7 +6121,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="27" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>84</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
@@ -6110,36 +6135,36 @@
     </x:row>
     <x:row r="2" spans="1:10" ht="27" customHeight="1">
       <x:c r="A2" s="12" t="s">
-        <x:v>102</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="12"/>
       <x:c r="C2" s="13" t="s">
-        <x:v>90</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D2" s="13"/>
       <x:c r="E2" s="13"/>
       <x:c r="F2" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G2" s="12"/>
       <x:c r="H2" s="12"/>
       <x:c r="I2" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="27" customHeight="1">
       <x:c r="A3" s="12" t="s">
-        <x:v>93</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B3" s="12"/>
       <x:c r="C3" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="13"/>
       <x:c r="E3" s="13"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>94</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G3" s="12"/>
       <x:c r="H3" s="12"/>
@@ -6148,54 +6173,54 @@
     </x:row>
     <x:row r="4" spans="1:10" ht="27" customHeight="1">
       <x:c r="A4" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B4" s="12"/>
       <x:c r="C4" s="13" t="s">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="13"/>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="12" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="12"/>
       <x:c r="I4" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:10" ht="27" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -6203,21 +6228,21 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>144</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I6" s="6"/>
       <x:c r="J6" s="7"/>
@@ -6227,13 +6252,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="6">
         <x:v>500</x:v>
@@ -6241,7 +6266,7 @@
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="6"/>
       <x:c r="H7" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="6"/>
       <x:c r="J7" s="7"/>
@@ -6251,13 +6276,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E8" s="6">
         <x:v>3500</x:v>
@@ -6265,7 +6290,7 @@
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="6"/>
       <x:c r="J8" s="7"/>
@@ -6275,21 +6300,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E9" s="6"/>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H9" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="7"/>
@@ -6299,21 +6324,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E10" s="6"/>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H10" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="7"/>
@@ -6321,23 +6346,23 @@
     <x:row r="11" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A11" s="4"/>
       <x:c r="B11" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="4"/>
       <x:c r="G11" s="4"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="10" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -6414,77 +6439,77 @@
     </x:row>
     <x:row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="49.5" customHeight="1">
       <x:c r="A19" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J19" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="224.09999999999999" customHeight="1">
       <x:c r="A20" s="15" t="s">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B20" s="15" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C20" s="16" t="s">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D20" s="17"/>
       <x:c r="E20" s="17"/>
